--- a/output/result/base model result.xlsx
+++ b/output/result/base model result.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\doc\research\birth rate\sbr_zf\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\doc\research\birth rate\sbr_zf\output\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8762445A-4EFE-447B-9668-DFC2E3D4ADAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C05277-3277-4413-9B19-C4E7F5E8EDB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="3210" windowWidth="27885" windowHeight="15600" activeTab="2" xr2:uid="{03AE0CDC-5944-4443-9300-31B93F367716}"/>
+    <workbookView xWindow="-28665" yWindow="0" windowWidth="27885" windowHeight="15600" activeTab="3" xr2:uid="{03AE0CDC-5944-4443-9300-31B93F367716}"/>
   </bookViews>
   <sheets>
     <sheet name="source type" sheetId="1" r:id="rId1"/>
     <sheet name="covariates" sheetId="3" r:id="rId2"/>
     <sheet name="country est" sheetId="4" r:id="rId3"/>
+    <sheet name="overview" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8216" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8231" uniqueCount="424">
   <si>
     <t>source</t>
   </si>
@@ -1278,12 +1279,42 @@
   <si>
     <t>ZWE</t>
   </si>
+  <si>
+    <t>definition</t>
+  </si>
+  <si>
+    <t>num obs</t>
+  </si>
+  <si>
+    <t>ga28wks</t>
+  </si>
+  <si>
+    <t>ga24wks</t>
+  </si>
+  <si>
+    <t>ga22wks</t>
+  </si>
+  <si>
+    <t>bw1000g</t>
+  </si>
+  <si>
+    <t>bw500g</t>
+  </si>
+  <si>
+    <t>source type</t>
+  </si>
+  <si>
+    <t>subnat.LR</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1299,8 +1330,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1312,8 +1349,14 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1447,12 +1490,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1487,6 +1556,19 @@
     <xf numFmtId="10" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1995,7 +2077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609D9DD8-617D-4EA8-80B9-A2113684397A}">
   <dimension ref="A1:F4096"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -83924,4 +84006,120 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21593C3E-5595-48A6-B703-C3E2A3FD3A75}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="D1:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1144</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="B3" s="13">
+        <v>42</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="13">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="B4" s="13">
+        <v>88</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="E4" s="13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B5" s="13">
+        <v>134</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="B6" s="13">
+        <v>12</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="B7" s="14">
+        <f>SUM(B2:B6)</f>
+        <v>1420</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="E7" s="14">
+        <f>SUM(E2:E5)</f>
+        <v>1420</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>